--- a/data/trans_orig/P78C10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C10_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08D9270D-2C79-47D4-9E92-1C1E324BFD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0839FAF1-45CF-44A8-BDDF-4133DA84C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{826A5324-C237-4AE8-9C82-88CAF4748671}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1F3215A0-6E3F-43CA-9210-E0424E8693F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="153">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de otros asuntos en 2023 (Tasa respuesta: 3,82%)</t>
   </si>
@@ -65,403 +65,433 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,8 +906,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9959A6B7-541A-4F5D-A15C-620EE2FF0927}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2F3C47-0E07-412B-B1DE-D3743D24206B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -997,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>10476</v>
+        <v>9654</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1012,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>9046</v>
+        <v>6650</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1027,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>19523</v>
+        <v>16305</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1048,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1063,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>5760</v>
+        <v>7514</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1078,7 +1108,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>5920</v>
+        <v>7680</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1099,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>10637</v>
+        <v>9821</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1114,7 +1144,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>14806</v>
+        <v>14164</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1129,7 +1159,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>25443</v>
+        <v>23985</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1152,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>21718</v>
+        <v>18821</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1167,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>11104</v>
+        <v>9595</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1182,7 +1212,7 @@
         <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>32822</v>
+        <v>28416</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1203,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>6518</v>
+        <v>7004</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1218,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2548</v>
+        <v>2244</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1233,7 +1263,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>9066</v>
+        <v>9248</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1254,7 +1284,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>28236</v>
+        <v>25825</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1269,7 +1299,7 @@
         <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>13652</v>
+        <v>11839</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1284,7 +1314,7 @@
         <v>31</v>
       </c>
       <c r="N9" s="7">
-        <v>41888</v>
+        <v>37664</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1307,7 +1337,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>21598</v>
+        <v>19760</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1322,7 +1352,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>16812</v>
+        <v>14475</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1337,7 +1367,7 @@
         <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>38410</v>
+        <v>34235</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1358,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>3212</v>
+        <v>3034</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1373,7 +1403,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>3736</v>
+        <v>3501</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1388,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>6948</v>
+        <v>6535</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1409,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>24810</v>
+        <v>22794</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1424,7 +1454,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="7">
-        <v>20548</v>
+        <v>17976</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1439,7 +1469,7 @@
         <v>50</v>
       </c>
       <c r="N12" s="7">
-        <v>45358</v>
+        <v>40770</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1462,7 +1492,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>25422</v>
+        <v>21823</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1477,31 +1507,31 @@
         <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>23461</v>
+        <v>20262</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
       </c>
       <c r="N13" s="7">
-        <v>48883</v>
+        <v>42084</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,46 +1543,46 @@
         <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>8093</v>
+        <v>7671</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>2339</v>
+        <v>2176</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>10432</v>
+        <v>9847</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,7 +1594,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="7">
-        <v>33515</v>
+        <v>29494</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1579,7 +1609,7 @@
         <v>38</v>
       </c>
       <c r="I15" s="7">
-        <v>25800</v>
+        <v>22438</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1594,7 +1624,7 @@
         <v>66</v>
       </c>
       <c r="N15" s="7">
-        <v>59315</v>
+        <v>51931</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1608,7 +1638,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1617,46 +1647,46 @@
         <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>26129</v>
+        <v>22172</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
       </c>
       <c r="I16" s="7">
-        <v>21754</v>
+        <v>18905</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
       </c>
       <c r="N16" s="7">
-        <v>47883</v>
+        <v>41077</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,46 +1698,46 @@
         <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>5594</v>
+        <v>5335</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>5524</v>
+        <v>4952</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>11118</v>
+        <v>10287</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,7 +1749,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>31723</v>
+        <v>27507</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1734,7 +1764,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="7">
-        <v>27278</v>
+        <v>23857</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1749,7 +1779,7 @@
         <v>72</v>
       </c>
       <c r="N18" s="7">
-        <v>59001</v>
+        <v>51364</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1763,55 +1793,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>21938</v>
+        <v>10766</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>39228</v>
+        <v>14350</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>45</v>
+      </c>
+      <c r="N19" s="7">
+        <v>25116</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="7">
-        <v>95</v>
-      </c>
-      <c r="N19" s="7">
-        <v>61165</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,46 +1853,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1667</v>
+        <v>1496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1482</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2302</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>5</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2978</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3969</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,10 +1901,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7">
-        <v>23605</v>
+        <v>12262</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1886,10 +1916,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I21" s="7">
-        <v>41530</v>
+        <v>15832</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1901,10 +1931,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="N21" s="7">
-        <v>65134</v>
+        <v>28094</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1918,55 +1948,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>127281</v>
+        <v>8255</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="7">
+        <v>37</v>
+      </c>
+      <c r="I22" s="7">
+        <v>19261</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="7">
+        <v>50</v>
+      </c>
+      <c r="N22" s="7">
+        <v>27516</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="7">
-        <v>166</v>
-      </c>
-      <c r="I22" s="7">
-        <v>121406</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M22" s="7">
-        <v>285</v>
-      </c>
-      <c r="N22" s="7">
-        <v>248687</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,49 +2005,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>25245</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>536</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>536</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="7">
-        <v>28</v>
-      </c>
-      <c r="I23" s="7">
-        <v>22208</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M23" s="7">
-        <v>49</v>
-      </c>
-      <c r="N23" s="7">
-        <v>47453</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,63 +2056,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8255</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>38</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19797</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>51</v>
+      </c>
+      <c r="N24" s="7">
+        <v>28052</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>119</v>
+      </c>
+      <c r="D25" s="7">
+        <v>111250</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="7">
+        <v>166</v>
+      </c>
+      <c r="I25" s="7">
+        <v>103497</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="7">
+        <v>285</v>
+      </c>
+      <c r="N25" s="7">
+        <v>214748</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="7">
-        <v>152526</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="P25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7">
+        <v>24707</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="7">
+        <v>28</v>
+      </c>
+      <c r="I26" s="7">
+        <v>22405</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M26" s="7">
+        <v>49</v>
+      </c>
+      <c r="N26" s="7">
+        <v>47112</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>140</v>
+      </c>
+      <c r="D27" s="7">
+        <v>135957</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>194</v>
       </c>
-      <c r="I24" s="7">
-        <v>143614</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>125902</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>334</v>
       </c>
-      <c r="N24" s="7">
-        <v>296140</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>261860</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
